--- a/va_facility_data_2025-02-20/Master Chief Petty Officer Jesse Dean VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Master%20Chief%20Petty%20Officer%20Jesse%20Dean%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Master Chief Petty Officer Jesse Dean VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Master%20Chief%20Petty%20Officer%20Jesse%20Dean%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R63c8d8e2085b46858708adc5e2ee4e22"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R05a8a5587c694f1ea99012367c4d4d9f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re8cfb9ca65ec4bf5ba95267b48fdb250"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc42cd9f08e574c08b32a422a6329f78a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1616c8875d704f2a81dfcb0d181493c1"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd76ba7248eeb4215bb9f047dc5eb4ba8"/>
   </x:sheets>
 </x:workbook>
 </file>
